--- a/5_semestre/horario.xlsx
+++ b/5_semestre/horario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\A-U\5_semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336F6500-3F12-4562-9309-8AF32247E93E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E90EAEC-0646-43E5-AFD7-76ABDB405B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Lunes</t>
   </si>
@@ -100,6 +100,15 @@
   <si>
     <t>Fisica III
 Laboratorio</t>
+  </si>
+  <si>
+    <t>Ecuaciones
+diferencias</t>
+  </si>
+  <si>
+    <t>Modelamiento de 
+datos
+laboratorio</t>
   </si>
 </sst>
 </file>
@@ -549,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +599,9 @@
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -604,7 +615,9 @@
       <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -685,7 +698,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>17</v>

--- a/5_semestre/horario.xlsx
+++ b/5_semestre/horario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\A-U\5_semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E90EAEC-0646-43E5-AFD7-76ABDB405B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CEC00E-D9AE-45B1-963D-F2197874568E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Lunes</t>
   </si>
@@ -124,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +170,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,9 +212,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -217,6 +220,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,7 +565,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,9 +637,7 @@
       <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -645,9 +649,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="E5" s="10"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -668,7 +670,7 @@
       <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1"/>
@@ -682,10 +684,10 @@
       <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="1"/>
@@ -694,13 +696,13 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -714,11 +716,11 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="4" t="s">

--- a/5_semestre/horario.xlsx
+++ b/5_semestre/horario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\A-U\5_semestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\OneDrive\Documentos\A-U\5_semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CEC00E-D9AE-45B1-963D-F2197874568E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26716FC4-F6B9-4DBB-841E-3EBCAEC59A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Lunes</t>
   </si>
@@ -124,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,12 +170,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,8 +215,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,7 +562,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,9 +599,7 @@
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D2" s="11"/>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
@@ -618,9 +613,7 @@
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
@@ -648,7 +641,9 @@
       <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="1"/>
     </row>
@@ -690,7 +685,7 @@
       <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -708,9 +703,7 @@
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">

--- a/5_semestre/horario.xlsx
+++ b/5_semestre/horario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\OneDrive\Documentos\A-U\5_semestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\A-U\5_semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26716FC4-F6B9-4DBB-841E-3EBCAEC59A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272DB1FC-81EB-44CD-8B82-D1BB32C20B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Lunes</t>
   </si>
@@ -109,6 +109,10 @@
     <t>Modelamiento de 
 datos
 laboratorio</t>
+  </si>
+  <si>
+    <t>Estructura 
+discreta</t>
   </si>
 </sst>
 </file>
@@ -562,7 +566,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +627,9 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
@@ -637,7 +643,9 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
@@ -742,6 +750,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/5_semestre/horario.xlsx
+++ b/5_semestre/horario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\A-U\5_semestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\OneDrive\Documentos\A-U\5_semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272DB1FC-81EB-44CD-8B82-D1BB32C20B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C67C9D7-A6DB-4CC1-8762-70AADA0C3580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Lunes</t>
   </si>
@@ -113,6 +113,15 @@
   <si>
     <t>Estructura 
 discreta</t>
+  </si>
+  <si>
+    <t>Taller</t>
+  </si>
+  <si>
+    <t>Talleres 15:00</t>
+  </si>
+  <si>
+    <t>Talleres 17:00</t>
   </si>
 </sst>
 </file>
@@ -128,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,6 +238,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -566,7 +587,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +698,9 @@
         <v>22</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -693,7 +716,9 @@
       <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -711,7 +736,9 @@
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">

--- a/5_semestre/horario.xlsx
+++ b/5_semestre/horario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\OneDrive\Documentos\A-U\5_semestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\A-U\5_semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C67C9D7-A6DB-4CC1-8762-70AADA0C3580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5DA663-8AE3-4AD0-B3BD-F676BD0E3B55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Lunes</t>
   </si>
@@ -122,6 +122,10 @@
   </si>
   <si>
     <t>Talleres 17:00</t>
+  </si>
+  <si>
+    <t>Ayudantia
+estructura</t>
   </si>
 </sst>
 </file>
@@ -587,7 +591,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +710,9 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
